--- a/GDV-Wochenplan.xlsx
+++ b/GDV-Wochenplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Sven</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Erweiterung Animation, zusätzliche Objekte</t>
+  </si>
+  <si>
+    <t>Meilenstein 1</t>
+  </si>
+  <si>
+    <t>Meilenstein 2</t>
+  </si>
+  <si>
+    <t>Meilenstein 3</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +468,7 @@
     <col min="11" max="11" width="24.28515625" customWidth="1"/>
     <col min="12" max="12" width="40.42578125" customWidth="1"/>
     <col min="13" max="13" width="31.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -698,6 +707,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
